--- a/biology/Botanique/Domaine_départemental_de_la_Vallée-aux-Loups/Domaine_départemental_de_la_Vallée-aux-Loups.xlsx
+++ b/biology/Botanique/Domaine_départemental_de_la_Vallée-aux-Loups/Domaine_départemental_de_la_Vallée-aux-Loups.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Domaine_d%C3%A9partemental_de_la_Vall%C3%A9e-aux-Loups</t>
+          <t>Domaine_départemental_de_la_Vallée-aux-Loups</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Situé au cœur du Val d’Aulnay à Châtenay-Malabry, le domaine départemental de la Vallée-aux-Loups est un ensemble de parcs et jardins de 56 hectares, propriété du conseil départemental des Hauts-de-Seine.
@@ -506,7 +518,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Domaine_d%C3%A9partemental_de_la_Vall%C3%A9e-aux-Loups</t>
+          <t>Domaine_départemental_de_la_Vallée-aux-Loups</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -526,11 +538,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arboretum
-Maison et parc de Chateaubriand
-L’Île Verte
-Le parc boisé
-Le parc boisé est constitué de la juxtaposition de diverses anciennes propriétés entourant la Vallée-aux-Loups.
+          <t>Le parc boisé</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc boisé est constitué de la juxtaposition de diverses anciennes propriétés entourant la Vallée-aux-Loups.
 </t>
         </is>
       </c>
